--- a/XLSXsubjectslist.xlsx
+++ b/XLSXsubjectslist.xlsx
@@ -1,21 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/helenazabska/Desktop/Project-PO/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2548A42-B2DE-6C41-A025-49A094561BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="przedmioty" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="ilość przedmiotów po rodzaju" sheetId="2" r:id="rId5"/>
+    <sheet name="przedmioty" sheetId="1" r:id="rId1"/>
+    <sheet name="ilość przedmiotów po rodzaju" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="11" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="246">
   <si>
     <t>nazwa przedmiotu</t>
   </si>
@@ -746,28 +755,44 @@
     <t>ilość</t>
   </si>
   <si>
-    <t>Suma całkowita</t>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>O3</t>
+  </si>
+  <si>
+    <t>O4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -776,7 +801,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -833,215 +858,149 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
-    <border/>
+  <borders count="8">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="6" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="7" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="8" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="9" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="10" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="21">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" pivotButton="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" invalid="1" refreshOnLoad="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Helena Żabska" refreshedDate="45463.921434490738" refreshedVersion="8" recordCount="152" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:F153" sheet="przedmioty"/>
   </cacheSource>
-  <cacheFields>
+  <cacheFields count="6">
     <cacheField name="nazwa przedmiotu" numFmtId="0">
-      <sharedItems>
-        <s v="Antropogeniczne zmiany klimatyczne"/>
-        <s v="Armie i wojny: hybrydowe i konwencjonalne"/>
-        <s v="Charakterystyka interakcji społecznych"/>
-        <s v="Dzieje refleksji moralnej"/>
-        <s v="Ekonomia międzynarodowa"/>
-        <s v="Elementy teorii argumentacji"/>
-        <s v="Etyka dla myślących"/>
-        <s v="Główne zagadnienia i kierunki filozofii współczesnej"/>
-        <s v="Gnoza w kulturze europejskiej"/>
-        <s v="Historia filozofii"/>
-        <s v="Idee post-humanizmu: projekt sztucznej inteligencji i problem możliwych umysłów"/>
-        <s v="Manipulacje i nadużycia na rynku finansowym"/>
-        <s v="Miękka siła i jej narzędzia w stosunkach międzynarodowych"/>
-        <s v="Niemcy w polityce międzynarodowej"/>
-        <s v="O ekonomii i gospodarce inaczej"/>
-        <s v="O nauce i jej pozycji w systemie Kultury"/>
-        <s v="Ochrona konkurencji w gospodarce rynkowej"/>
-        <s v="Ochrona środowiska w Polsce i Unii Europejskiej"/>
-        <s v="Od Mordoru po Matrix. Fantastyczna filozofia polityki"/>
-        <s v="Podstawy ekonomii"/>
-        <s v="Polityka gospodarcza"/>
-        <s v="Polityka gospodarcza UE"/>
-        <s v="Polityka międzynarodowa po 1945 roku"/>
-        <s v="Psychologia międzykulturowa"/>
-        <s v="Psychologia relacji międzyludzkich"/>
-        <s v="Służby specjalne w systemie bezpieczeństwa państwa i stosunkach międzynarodowych"/>
-        <s v="Teksty w mediach elektronicznych - poprawna i efektywna komunikacja"/>
-        <s v="Teoria argumentacji z elementami semiotyki logicznej"/>
-        <s v="Teoria nazw"/>
-        <s v="Usługi finansowe"/>
-        <s v="Zarządzanie zespołem projektowym"/>
-        <s v="Wybrane problemy etyki"/>
-        <s v="Ochrona własności intelektualnej"/>
-        <s v="Inżynieria zespołu programistycznego"/>
-        <s v="Komunikacja człowiek-komputer"/>
-        <s v="Logika cyfrowa"/>
-        <s v="Podstawy grafiki komputerowej"/>
-        <s v="Podstawy i zastosowania złożoności obliczeniowej"/>
-        <s v="Projektowanie obiektowe oprogramowania"/>
-        <s v="Synteza i przetwarzanie dźwięku"/>
-        <s v="Sztuczna inteligencja"/>
-        <s v="Systemy wbudowane"/>
-        <s v="Wybrane elementy praktyki projektowania oprogramowania"/>
-        <s v="Algorytmika praktyczna"/>
-        <s v="Analiza składniowa dla początkujących (½)"/>
-        <s v="Architektury systemów komputerowych"/>
-        <s v="Bazy danych"/>
-        <s v="Inżynieria oprogramowania"/>
-        <s v="Konstrukcja kompilatorów"/>
-        <s v="Kultura bezpieczeństwa komputerowego"/>
-        <s v="Logika 2"/>
-        <s v="Metody biometryczne"/>
-        <s v="Metody implementacji algorytmów"/>
-        <s v="Metody zarządzania projektami"/>
-        <s v="Programowanie obiektowe "/>
-        <s v="Programowanie funkcyjne"/>
-        <s v="Programowanie współbieżne"/>
-        <s v="Rachunek prawdopodobieństwa i statystyka"/>
-        <s v="Sieci komputerowe"/>
-        <s v="Systemy operacyjne"/>
-        <s v="Systemy rozproszone"/>
-        <s v="Testowanie gier"/>
-        <s v="Tworzenie programów konwersujących"/>
-        <s v="Wstęp do informatyki"/>
-        <s v="Wstęp do bezpieczeństwa komputerowego"/>
-        <s v="Kurs języka C++"/>
-        <s v="Kurs języka Java"/>
-        <s v="Kurs języka Ruby"/>
-        <s v="Kurs: Podstawowy warsztat informatyka"/>
-        <s v="Kurs programowania pod Windows w technologii .NET"/>
-        <s v="Kurs rozszerzony języka Python"/>
-        <s v="Kurs: Wstęp do programowania w języku C"/>
-        <s v="Kurs: Wstęp do programowania w języku Python"/>
-        <s v="Kurs WWW"/>
-        <s v="Półkurs języka Prolog"/>
-        <s v="Algorytmika Olimpijska"/>
-        <s v="Korporacyjna Java"/>
-        <s v="Kurs ½: Hakowanie dla każdego"/>
-        <s v="Kurs ½: Odzyskiwanie danych"/>
-        <s v="Kurs administracji systemami Windows"/>
-        <s v="Kurs języka Elixir"/>
-        <s v="Kurs języka Haskell"/>
-        <s v="Kurs języka Lua"/>
-        <s v="Kurs języka Rust"/>
-        <s v="Kurs: Kryptoanaliza stosowana"/>
-        <s v="Kurs: Obliczenia równoległe na kartach graficznych CUDA (Q2)"/>
-        <s v="Kurs: Ochrona danych"/>
-        <s v="Kurs pisania tekstów technicznych (Q2)"/>
-        <s v="Kurs: Praktyczne aspekty sieci komputerowych"/>
-        <s v="Kurs programowania gier w silniku Unity"/>
-        <s v="Kurs programowania gier w silniku Unreal 5"/>
-        <s v="Kurs projektowania aplikacji w PHP"/>
-        <s v="Kurs: zaawansowane techniki w C++ i STL"/>
-        <s v="Modelowanie finansowych instrumentów pochodnych z zastosowaniem języka funkcyjnego F#"/>
-        <s v="Optymalizacja głębokich sieci neuronowych na urządzenia IoT"/>
-        <s v="Praktyczne zarządzanie systemami IT (Q2)"/>
-        <s v="Kurs: Praktyczne aspekty rozwoju oprogramowania"/>
-        <s v="Kurs ½ (Q2): Podstawy administrowania systemami FreeBSD i OpenBSD"/>
-        <s v="Kurs administrowania systemem Linux"/>
-        <s v="Kurs Blendera"/>
-        <s v="Kurs: Metodyki zwinne wytwarzania oprogramowania"/>
-        <s v="Kurs modelowania 3D i wizualizacji w programie SketchUp"/>
-        <s v="Kurs: Nowoczesne języki przetwarzania danych: Python, R i Matlab"/>
-        <s v="Kurs projektowania aplikacji z bazami danych"/>
-        <s v="Kurs: React"/>
-        <s v="Kurs: Tworzenie aplikacji frontendowych"/>
-        <s v="Kurs: Wybrane elementy praktyki projektowania oprogramowania"/>
-        <s v="Kurs: Zaawansowane technologie Javy"/>
-        <s v="Podstawy elektroniki, elektrotechniki i miernictwa"/>
-        <s v="Algebra"/>
-        <s v="Analiza matematyczna"/>
-        <s v="Logika dla informatyków"/>
-        <s v="Metody programowania"/>
-        <s v="Algorytmy i struktury danych"/>
-        <s v="Matematyka dyskretna (L)"/>
-        <s v="Analiza numeryczna"/>
-        <s v="Funkcyjny projekt programistyczny"/>
-        <s v="Projects by Volvo IT"/>
-        <s v="Projekt: autonomiczna jazda łazikiem"/>
-        <s v="Projekt: bazy danych 2"/>
-        <s v="Projekt: boty konwersacyjne i odpowiadanie na pytania"/>
-        <s v="Innovative Projects by Nokia"/>
-        <s v="Projekt: Budowa i rozwój analogu łazika marsjańskiego"/>
-        <s v="Projekt: Deep Learning"/>
-        <s v="Projekt: Digital Experience &amp; Internet of Things"/>
-        <s v="Projekt: Ewolucyjne konstruowanie pojazdów kołowych 2D"/>
-        <s v="Projekt: Kompetytywna Sztuczna Inteligencja"/>
-        <s v="Projekt: Kompilacja efektów algebraicznych"/>
-        <s v="Projekt: Machine Learning for Recommender Systems"/>
-        <s v="Projekt: Produkcja demoscenowa"/>
-        <s v="Projekt: Programowanie multimediów, interaktywna grafika 3D"/>
-        <s v="Warsztaty: Deep Learning"/>
-        <s v="Proseminarium: Organizacja systemów komputerowych"/>
-        <s v="Proseminarium: Bezpieczeństwo i ochrona informacji"/>
-        <s v="Proseminarium: Linux kawałek po kawałku"/>
-        <s v="Proseminarium Młody Badacz"/>
-        <s v="Proseminarium: Retroinformatyka"/>
-        <s v="Proseminarium: Testowanie oprogramowania"/>
-        <s v="Proseminarium: Wizualizacja danych"/>
-        <s v="Proseminarium: Zaawansowane administrowanie systemem Linux"/>
-        <s v="Rozstrzygalność i złożoność logik motywowanych informatyką"/>
-        <s v="Seminarium: Administracja systemami Windows Server"/>
-        <s v="Seminarium: Algebry procesów"/>
-        <s v="Seminarium: Algorytmy heurystyczne"/>
-        <s v="Seminarium: Algorytmy numeryczne i graficzne"/>
-        <s v="Seminarium: Algorytmy probabilistyczne"/>
-        <s v="Seminarium: Algorytmy rozproszone"/>
-        <s v="Seminarium: Bezpieczeństwo aplikacji"/>
-        <s v="Seminarium: Synteza i analiza mowy"/>
-        <s v="Seminarium: Krzywe i powierzchnie w grafice komputerowej"/>
-        <s v="Seminarium: Sieci neuronowe i statystyka"/>
-      </sharedItems>
+      <sharedItems/>
     </cacheField>
     <cacheField name="rodzaj" numFmtId="0">
-      <sharedItems>
+      <sharedItems count="11">
         <s v="HS"/>
         <s v="I.Inż"/>
         <s v="I1"/>
@@ -1056,271 +1015,1254 @@
       </sharedItems>
     </cacheField>
     <cacheField name="ECTS" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1">
-        <n v="3.0"/>
-        <n v="5.0"/>
-        <n v="1.0"/>
-        <n v="6.0"/>
-        <n v="8.0"/>
-        <n v="4.0"/>
-        <n v="2.0"/>
-        <n v="10.0"/>
-        <n v="9.0"/>
-      </sharedItems>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="10"/>
     </cacheField>
     <cacheField name="semestr" numFmtId="0">
-      <sharedItems>
-        <s v="letni"/>
-        <s v="nieokreślony"/>
-        <s v="zimowy"/>
-      </sharedItems>
+      <sharedItems/>
     </cacheField>
     <cacheField name="tagi" numFmtId="0">
-      <sharedItems containsBlank="1">
-        <m/>
-        <s v="E"/>
-        <s v="IO, PiPO"/>
-        <s v="ASK"/>
-        <s v="BD"/>
-        <s v="IO"/>
-        <s v="AZ"/>
-        <s v="PiPO"/>
-        <s v="RPiS"/>
-        <s v="SK"/>
-        <s v="SO"/>
-        <s v="SY"/>
-        <s v="SY, SK"/>
-        <s v="DS, PD"/>
-        <s v="NG"/>
-        <s v="PD"/>
-      </sharedItems>
+      <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="opiekun" numFmtId="0">
-      <sharedItems>
-        <s v=" Jan Otop"/>
-        <s v="Jan Otop"/>
-        <s v="Katarzyna Serafińska"/>
-        <s v="Małgorzata Biernacka"/>
-        <s v="Wioletta Nowak"/>
-        <s v="Zbigniew Pietrzak"/>
-        <s v="Jan"/>
-        <s v="Gabriela Przesławska"/>
-        <s v="Jan Marcinkowski"/>
-        <s v="Zdzisław Płoski"/>
-        <s v="Marek Materzok"/>
-        <s v="Andrzej Łukaszewski"/>
-        <s v="Jakub Michaliszyn"/>
-        <s v="Wiktor Zychla"/>
-        <s v="Dariusz Jackowski"/>
-        <s v=" Paweł Rychlikowski"/>
-        <s v="Artur Kraska"/>
-        <s v="Tomasz Wierzbicki"/>
-        <s v="Krystian Bacławski"/>
-        <s v="Piotr Wieczorek"/>
-        <s v="Leszek Grocholski"/>
-        <s v="Witold Charatonik"/>
-        <s v="Filip Sieczkowski"/>
-        <s v="Rafał Nowak"/>
-        <s v="Marcin Młotkowski"/>
-        <s v="Piotr Polesiuk"/>
-        <s v="Piotr Witkowski"/>
-        <s v="Witold Karczewski"/>
-        <s v="Marcin Bieńkowski"/>
-        <s v="Paweł Rychlikowski"/>
-        <s v="Tomasz Jurdziński"/>
-        <s v="Filip Zagórski"/>
-        <s v=" Paweł Rzechonek"/>
-        <s v="Paweł Rzechonek"/>
-        <s v="Paweł Laskoś-Grabowski"/>
-        <s v="Paweł Rajba"/>
-        <s v=" Tomasz Wierzbicki"/>
-        <s v="Karol Pokorski"/>
-        <s v="Daniel Górski"/>
-        <s v="Piotr Lisowski"/>
-        <s v="Maciej Piróg"/>
-        <s v="Jakub Kowalski"/>
-        <s v="Łukasz Piwowar"/>
-        <s v="Marcin Włodarczak"/>
-        <s v="Jan Chorowski"/>
-        <s v="Kamil Matuszewski"/>
-        <s v="Radosław Wasielewski"/>
-        <s v="Artur Jeż"/>
-        <s v="Maciej Paluszyński"/>
-        <s v="nieznany"/>
-        <s v="Katarzyna Paluch"/>
-        <s v="Paweł Woźny"/>
-        <s v="Piotr Wnuk-Lipiński"/>
-        <s v="Krzysztof Tabisz"/>
-        <s v="Emanuel Kieroński"/>
-        <s v="Marek Piotrów"/>
-      </sharedItems>
+      <sharedItems/>
     </cacheField>
   </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="152">
+  <r>
+    <s v="Antropogeniczne zmiany klimatyczne"/>
+    <x v="0"/>
+    <n v="3"/>
+    <s v="letni"/>
+    <m/>
+    <s v="_x0009_Jan Otop"/>
+  </r>
+  <r>
+    <s v="Armie i wojny: hybrydowe i konwencjonalne"/>
+    <x v="0"/>
+    <n v="5"/>
+    <s v="letni"/>
+    <m/>
+    <s v="Jan Otop"/>
+  </r>
+  <r>
+    <s v="Charakterystyka interakcji społecznych"/>
+    <x v="0"/>
+    <n v="3"/>
+    <s v="nieokreślony"/>
+    <m/>
+    <s v="Katarzyna Serafińska"/>
+  </r>
+  <r>
+    <s v="Dzieje refleksji moralnej"/>
+    <x v="0"/>
+    <n v="5"/>
+    <s v="zimowy"/>
+    <m/>
+    <s v="Małgorzata Biernacka"/>
+  </r>
+  <r>
+    <s v="Ekonomia międzynarodowa"/>
+    <x v="0"/>
+    <n v="3"/>
+    <s v="zimowy"/>
+    <m/>
+    <s v="Wioletta Nowak"/>
+  </r>
+  <r>
+    <s v="Elementy teorii argumentacji"/>
+    <x v="0"/>
+    <n v="3"/>
+    <s v="zimowy"/>
+    <m/>
+    <s v="Jan Otop"/>
+  </r>
+  <r>
+    <s v="Etyka dla myślących"/>
+    <x v="0"/>
+    <n v="5"/>
+    <s v="letni"/>
+    <m/>
+    <s v="Jan Otop"/>
+  </r>
+  <r>
+    <s v="Główne zagadnienia i kierunki filozofii współczesnej"/>
+    <x v="0"/>
+    <n v="3"/>
+    <s v="letni"/>
+    <m/>
+    <s v="Małgorzata Biernacka"/>
+  </r>
+  <r>
+    <s v="Gnoza w kulturze europejskiej"/>
+    <x v="0"/>
+    <n v="3"/>
+    <s v="letni"/>
+    <m/>
+    <s v="Jan Otop"/>
+  </r>
+  <r>
+    <s v="Historia filozofii"/>
+    <x v="0"/>
+    <n v="5"/>
+    <s v="zimowy"/>
+    <m/>
+    <s v="Zbigniew Pietrzak"/>
+  </r>
+  <r>
+    <s v="Idee post-humanizmu: projekt sztucznej inteligencji i problem możliwych umysłów"/>
+    <x v="0"/>
+    <n v="5"/>
+    <s v="zimowy"/>
+    <m/>
+    <s v="Jan Otop"/>
+  </r>
+  <r>
+    <s v="Manipulacje i nadużycia na rynku finansowym"/>
+    <x v="0"/>
+    <n v="5"/>
+    <s v="letni"/>
+    <m/>
+    <s v="Jan Otop"/>
+  </r>
+  <r>
+    <s v="Miękka siła i jej narzędzia w stosunkach międzynarodowych"/>
+    <x v="0"/>
+    <n v="3"/>
+    <s v="letni"/>
+    <m/>
+    <s v="Jan Otop"/>
+  </r>
+  <r>
+    <s v="Niemcy w polityce międzynarodowej"/>
+    <x v="0"/>
+    <n v="3"/>
+    <s v="nieokreślony"/>
+    <m/>
+    <s v="Jan Otop"/>
+  </r>
+  <r>
+    <s v="O ekonomii i gospodarce inaczej"/>
+    <x v="0"/>
+    <n v="5"/>
+    <s v="zimowy"/>
+    <s v="E"/>
+    <s v="Jan"/>
+  </r>
+  <r>
+    <s v="O nauce i jej pozycji w systemie Kultury"/>
+    <x v="0"/>
+    <n v="5"/>
+    <s v="letni"/>
+    <m/>
+    <s v="Małgorzata Biernacka"/>
+  </r>
+  <r>
+    <s v="Ochrona konkurencji w gospodarce rynkowej"/>
+    <x v="0"/>
+    <n v="3"/>
+    <s v="letni"/>
+    <m/>
+    <s v="Jan Otop"/>
+  </r>
+  <r>
+    <s v="Ochrona środowiska w Polsce i Unii Europejskiej"/>
+    <x v="0"/>
+    <n v="5"/>
+    <s v="letni"/>
+    <m/>
+    <s v="Małgorzata Biernacka"/>
+  </r>
+  <r>
+    <s v="Od Mordoru po Matrix. Fantastyczna filozofia polityki"/>
+    <x v="0"/>
+    <n v="3"/>
+    <s v="letni"/>
+    <m/>
+    <s v="Jan Otop"/>
+  </r>
+  <r>
+    <s v="Podstawy ekonomii"/>
+    <x v="0"/>
+    <n v="3"/>
+    <s v="nieokreślony"/>
+    <s v="E"/>
+    <s v="Gabriela Przesławska"/>
+  </r>
+  <r>
+    <s v="Polityka gospodarcza"/>
+    <x v="0"/>
+    <n v="3"/>
+    <s v="letni"/>
+    <s v="E"/>
+    <s v="Jan Otop"/>
+  </r>
+  <r>
+    <s v="Polityka gospodarcza UE"/>
+    <x v="0"/>
+    <n v="5"/>
+    <s v="letni"/>
+    <m/>
+    <s v="Jan Otop"/>
+  </r>
+  <r>
+    <s v="Polityka międzynarodowa po 1945 roku"/>
+    <x v="0"/>
+    <n v="3"/>
+    <s v="nieokreślony"/>
+    <m/>
+    <s v="Jan Otop"/>
+  </r>
+  <r>
+    <s v="Psychologia międzykulturowa"/>
+    <x v="0"/>
+    <n v="5"/>
+    <s v="letni"/>
+    <m/>
+    <s v="Jan Otop"/>
+  </r>
+  <r>
+    <s v="Psychologia relacji międzyludzkich"/>
+    <x v="0"/>
+    <n v="5"/>
+    <s v="letni"/>
+    <m/>
+    <s v="Małgorzata Biernacka"/>
+  </r>
+  <r>
+    <s v="Służby specjalne w systemie bezpieczeństwa państwa i stosunkach międzynarodowych"/>
+    <x v="0"/>
+    <n v="3"/>
+    <s v="zimowy"/>
+    <m/>
+    <s v="Jan Otop"/>
+  </r>
+  <r>
+    <s v="Teksty w mediach elektronicznych - poprawna i efektywna komunikacja"/>
+    <x v="0"/>
+    <n v="5"/>
+    <s v="letni"/>
+    <m/>
+    <s v="Małgorzata Biernacka"/>
+  </r>
+  <r>
+    <s v="Teoria argumentacji z elementami semiotyki logicznej"/>
+    <x v="0"/>
+    <n v="3"/>
+    <s v="zimowy"/>
+    <m/>
+    <s v="Jan Otop"/>
+  </r>
+  <r>
+    <s v="Teoria nazw"/>
+    <x v="0"/>
+    <n v="3"/>
+    <s v="letni"/>
+    <m/>
+    <s v="Jan Otop"/>
+  </r>
+  <r>
+    <s v="Usługi finansowe"/>
+    <x v="0"/>
+    <n v="5"/>
+    <s v="zimowy"/>
+    <s v="E"/>
+    <s v="Jan Otop"/>
+  </r>
+  <r>
+    <s v="Zarządzanie zespołem projektowym"/>
+    <x v="0"/>
+    <n v="3"/>
+    <s v="letni"/>
+    <m/>
+    <s v="Małgorzata Biernacka"/>
+  </r>
+  <r>
+    <s v="Wybrane problemy etyki"/>
+    <x v="0"/>
+    <n v="3"/>
+    <s v="letni"/>
+    <m/>
+    <s v="Małgorzata Biernacka"/>
+  </r>
+  <r>
+    <s v="Ochrona własności intelektualnej"/>
+    <x v="0"/>
+    <n v="1"/>
+    <s v="nieokreślony"/>
+    <m/>
+    <s v="Jan Otop"/>
+  </r>
+  <r>
+    <s v="Inżynieria zespołu programistycznego"/>
+    <x v="1"/>
+    <n v="3"/>
+    <s v="zimowy"/>
+    <m/>
+    <s v="Jan Marcinkowski"/>
+  </r>
+  <r>
+    <s v="Komunikacja człowiek-komputer"/>
+    <x v="1"/>
+    <n v="6"/>
+    <s v="zimowy"/>
+    <m/>
+    <s v="Zdzisław Płoski"/>
+  </r>
+  <r>
+    <s v="Logika cyfrowa"/>
+    <x v="1"/>
+    <n v="6"/>
+    <s v="letni"/>
+    <m/>
+    <s v="Marek Materzok"/>
+  </r>
+  <r>
+    <s v="Podstawy grafiki komputerowej"/>
+    <x v="1"/>
+    <n v="6"/>
+    <s v="zimowy"/>
+    <m/>
+    <s v="Andrzej Łukaszewski"/>
+  </r>
+  <r>
+    <s v="Podstawy i zastosowania złożoności obliczeniowej"/>
+    <x v="1"/>
+    <n v="6"/>
+    <s v="zimowy"/>
+    <m/>
+    <s v="Jakub Michaliszyn"/>
+  </r>
+  <r>
+    <s v="Projektowanie obiektowe oprogramowania"/>
+    <x v="1"/>
+    <n v="6"/>
+    <s v="letni"/>
+    <s v="IO, PiPO"/>
+    <s v="Wiktor Zychla"/>
+  </r>
+  <r>
+    <s v="Synteza i przetwarzanie dźwięku"/>
+    <x v="1"/>
+    <n v="6"/>
+    <s v="zimowy"/>
+    <m/>
+    <s v="Dariusz Jackowski"/>
+  </r>
+  <r>
+    <s v="Sztuczna inteligencja"/>
+    <x v="1"/>
+    <n v="6"/>
+    <s v="letni"/>
+    <m/>
+    <s v="_x0009_Paweł Rychlikowski"/>
+  </r>
+  <r>
+    <s v="Systemy wbudowane"/>
+    <x v="1"/>
+    <n v="6"/>
+    <s v="zimowy"/>
+    <s v="ASK"/>
+    <s v="Marek Materzok"/>
+  </r>
+  <r>
+    <s v="Wybrane elementy praktyki projektowania oprogramowania"/>
+    <x v="1"/>
+    <n v="6"/>
+    <s v="zimowy"/>
+    <s v="IO, PiPO"/>
+    <s v="Wiktor Zychla"/>
+  </r>
+  <r>
+    <s v="Algorytmika praktyczna"/>
+    <x v="2"/>
+    <n v="6"/>
+    <s v="letni"/>
+    <m/>
+    <s v="Artur Kraska"/>
+  </r>
+  <r>
+    <s v="Analiza składniowa dla początkujących (½)"/>
+    <x v="2"/>
+    <n v="3"/>
+    <s v="zimowy"/>
+    <m/>
+    <s v="Tomasz Wierzbicki"/>
+  </r>
+  <r>
+    <s v="Architektury systemów komputerowych"/>
+    <x v="2"/>
+    <n v="8"/>
+    <s v="letni"/>
+    <s v="ASK"/>
+    <s v="Krystian Bacławski"/>
+  </r>
+  <r>
+    <s v="Bazy danych"/>
+    <x v="2"/>
+    <n v="6"/>
+    <s v="letni"/>
+    <s v="BD"/>
+    <s v="Piotr Wieczorek"/>
+  </r>
+  <r>
+    <s v="Inżynieria oprogramowania"/>
+    <x v="2"/>
+    <n v="6"/>
+    <s v="zimowy"/>
+    <s v="IO"/>
+    <s v="Leszek Grocholski"/>
+  </r>
+  <r>
+    <s v="Konstrukcja kompilatorów"/>
+    <x v="2"/>
+    <n v="6"/>
+    <s v="zimowy"/>
+    <m/>
+    <s v="Witold Charatonik"/>
+  </r>
+  <r>
+    <s v="Kultura bezpieczeństwa komputerowego"/>
+    <x v="2"/>
+    <n v="6"/>
+    <s v="zimowy"/>
+    <m/>
+    <s v="Tomasz Wierzbicki"/>
+  </r>
+  <r>
+    <s v="Logika 2"/>
+    <x v="2"/>
+    <n v="6"/>
+    <s v="letni"/>
+    <m/>
+    <s v="Filip Sieczkowski"/>
+  </r>
+  <r>
+    <s v="Metody biometryczne"/>
+    <x v="2"/>
+    <n v="6"/>
+    <s v="letni"/>
+    <m/>
+    <s v="Rafał Nowak"/>
+  </r>
+  <r>
+    <s v="Metody implementacji algorytmów"/>
+    <x v="2"/>
+    <n v="4"/>
+    <s v="zimowy"/>
+    <s v="AZ"/>
+    <s v="Artur Kraska"/>
+  </r>
+  <r>
+    <s v="Metody zarządzania projektami"/>
+    <x v="2"/>
+    <n v="1"/>
+    <s v="letni"/>
+    <m/>
+    <s v="Jan Otop"/>
+  </r>
+  <r>
+    <s v="Programowanie obiektowe "/>
+    <x v="2"/>
+    <n v="6"/>
+    <s v="letni"/>
+    <s v="PiPO"/>
+    <s v="Marcin Młotkowski"/>
+  </r>
+  <r>
+    <s v="Programowanie funkcyjne"/>
+    <x v="2"/>
+    <n v="6"/>
+    <s v="zimowy"/>
+    <m/>
+    <s v="Piotr Polesiuk"/>
+  </r>
+  <r>
+    <s v="Programowanie współbieżne"/>
+    <x v="2"/>
+    <n v="6"/>
+    <s v="zimowy"/>
+    <m/>
+    <s v="Piotr Witkowski"/>
+  </r>
+  <r>
+    <s v="Rachunek prawdopodobieństwa i statystyka"/>
+    <x v="2"/>
+    <n v="6"/>
+    <s v="letni"/>
+    <s v="RPiS"/>
+    <s v="Witold Karczewski"/>
+  </r>
+  <r>
+    <s v="Sieci komputerowe"/>
+    <x v="2"/>
+    <n v="6"/>
+    <s v="letni"/>
+    <s v="SK"/>
+    <s v="Marcin Bieńkowski"/>
+  </r>
+  <r>
+    <s v="Systemy operacyjne"/>
+    <x v="2"/>
+    <n v="8"/>
+    <s v="zimowy"/>
+    <s v="SO"/>
+    <s v="Krystian Bacławski"/>
+  </r>
+  <r>
+    <s v="Systemy rozproszone"/>
+    <x v="2"/>
+    <n v="6"/>
+    <s v="letni"/>
+    <s v="SY"/>
+    <s v="Zdzisław Płoski"/>
+  </r>
+  <r>
+    <s v="Testowanie gier"/>
+    <x v="2"/>
+    <n v="6"/>
+    <s v="letni"/>
+    <m/>
+    <s v="Leszek Grocholski"/>
+  </r>
+  <r>
+    <s v="Tworzenie programów konwersujących"/>
+    <x v="2"/>
+    <n v="5"/>
+    <s v="letni"/>
+    <m/>
+    <s v="Paweł Rychlikowski"/>
+  </r>
+  <r>
+    <s v="Wstęp do informatyki"/>
+    <x v="2"/>
+    <n v="6"/>
+    <s v="zimowy"/>
+    <m/>
+    <s v="Tomasz Jurdziński"/>
+  </r>
+  <r>
+    <s v="Wstęp do bezpieczeństwa komputerowego"/>
+    <x v="2"/>
+    <n v="6"/>
+    <s v="letni"/>
+    <m/>
+    <s v="Filip Zagórski"/>
+  </r>
+  <r>
+    <s v="Kurs języka C++"/>
+    <x v="3"/>
+    <n v="5"/>
+    <s v="letni"/>
+    <m/>
+    <s v="_x0009_Paweł Rzechonek"/>
+  </r>
+  <r>
+    <s v="Kurs języka Java"/>
+    <x v="3"/>
+    <n v="5"/>
+    <s v="zimowy"/>
+    <m/>
+    <s v="Paweł Rzechonek"/>
+  </r>
+  <r>
+    <s v="Kurs języka Ruby"/>
+    <x v="3"/>
+    <n v="5"/>
+    <s v="zimowy"/>
+    <m/>
+    <s v="Marcin Młotkowski"/>
+  </r>
+  <r>
+    <s v="Kurs: Podstawowy warsztat informatyka"/>
+    <x v="3"/>
+    <n v="3"/>
+    <s v="zimowy"/>
+    <m/>
+    <s v="Jakub Michaliszyn"/>
+  </r>
+  <r>
+    <s v="Kurs programowania pod Windows w technologii .NET"/>
+    <x v="3"/>
+    <n v="5"/>
+    <s v="letni"/>
+    <m/>
+    <s v="Wiktor Zychla"/>
+  </r>
+  <r>
+    <s v="Kurs rozszerzony języka Python"/>
+    <x v="3"/>
+    <n v="5"/>
+    <s v="zimowy"/>
+    <m/>
+    <s v="Marcin Młotkowski"/>
+  </r>
+  <r>
+    <s v="Kurs: Wstęp do programowania w języku C"/>
+    <x v="3"/>
+    <n v="5"/>
+    <s v="zimowy"/>
+    <m/>
+    <s v="Paweł Laskoś-Grabowski"/>
+  </r>
+  <r>
+    <s v="Kurs: Wstęp do programowania w języku Python"/>
+    <x v="3"/>
+    <n v="5"/>
+    <s v="zimowy"/>
+    <m/>
+    <s v="Paweł Rychlikowski"/>
+  </r>
+  <r>
+    <s v="Kurs WWW"/>
+    <x v="3"/>
+    <n v="5"/>
+    <s v="zimowy"/>
+    <m/>
+    <s v="Paweł Rajba"/>
+  </r>
+  <r>
+    <s v="Półkurs języka Prolog"/>
+    <x v="3"/>
+    <n v="3"/>
+    <s v="letni"/>
+    <m/>
+    <s v="_x0009_Tomasz Wierzbicki"/>
+  </r>
+  <r>
+    <s v="Algorytmika Olimpijska"/>
+    <x v="4"/>
+    <n v="5"/>
+    <s v="nieokreślony"/>
+    <m/>
+    <s v="Karol Pokorski"/>
+  </r>
+  <r>
+    <s v="Korporacyjna Java"/>
+    <x v="4"/>
+    <n v="5"/>
+    <s v="letni"/>
+    <m/>
+    <s v="Daniel Górski"/>
+  </r>
+  <r>
+    <s v="Kurs ½: Hakowanie dla każdego"/>
+    <x v="4"/>
+    <n v="3"/>
+    <s v="zimowy"/>
+    <m/>
+    <s v="Paweł Rajba"/>
+  </r>
+  <r>
+    <s v="Kurs ½: Odzyskiwanie danych"/>
+    <x v="4"/>
+    <n v="3"/>
+    <s v="zimowy"/>
+    <m/>
+    <s v="Tomasz Wierzbicki"/>
+  </r>
+  <r>
+    <s v="Kurs administracji systemami Windows"/>
+    <x v="4"/>
+    <n v="5"/>
+    <s v="letni"/>
+    <m/>
+    <s v="Paweł Rajba"/>
+  </r>
+  <r>
+    <s v="Kurs języka Elixir"/>
+    <x v="4"/>
+    <n v="5"/>
+    <s v="zimowy"/>
+    <m/>
+    <s v="Piotr Lisowski"/>
+  </r>
+  <r>
+    <s v="Kurs języka Haskell"/>
+    <x v="4"/>
+    <n v="5"/>
+    <s v="zimowy"/>
+    <m/>
+    <s v="Maciej Piróg"/>
+  </r>
+  <r>
+    <s v="Kurs języka Lua"/>
+    <x v="4"/>
+    <n v="5"/>
+    <s v="letni"/>
+    <m/>
+    <s v="Jakub Kowalski"/>
+  </r>
+  <r>
+    <s v="Kurs języka Rust"/>
+    <x v="4"/>
+    <n v="5"/>
+    <s v="zimowy"/>
+    <m/>
+    <s v="Łukasz Piwowar"/>
+  </r>
+  <r>
+    <s v="Kurs: Kryptoanaliza stosowana"/>
+    <x v="4"/>
+    <n v="6"/>
+    <s v="zimowy"/>
+    <m/>
+    <s v="Tomasz Wierzbicki"/>
+  </r>
+  <r>
+    <s v="Kurs: Obliczenia równoległe na kartach graficznych CUDA (Q2)"/>
+    <x v="4"/>
+    <n v="3"/>
+    <s v="zimowy"/>
+    <m/>
+    <s v="Andrzej Łukaszewski"/>
+  </r>
+  <r>
+    <s v="Kurs: Ochrona danych"/>
+    <x v="4"/>
+    <n v="5"/>
+    <s v="zimowy"/>
+    <m/>
+    <s v="Tomasz Wierzbicki"/>
+  </r>
+  <r>
+    <s v="Kurs pisania tekstów technicznych (Q2)"/>
+    <x v="4"/>
+    <n v="3"/>
+    <s v="letni"/>
+    <m/>
+    <s v="Paweł Laskoś-Grabowski"/>
+  </r>
+  <r>
+    <s v="Kurs: Praktyczne aspekty sieci komputerowych"/>
+    <x v="4"/>
+    <n v="5"/>
+    <s v="zimowy"/>
+    <s v="SY, SK"/>
+    <s v="Marcin Włodarczak"/>
+  </r>
+  <r>
+    <s v="Kurs programowania gier w silniku Unity"/>
+    <x v="4"/>
+    <n v="5"/>
+    <s v="zimowy"/>
+    <m/>
+    <s v="Łukasz Piwowar"/>
+  </r>
+  <r>
+    <s v="Kurs programowania gier w silniku Unreal 5"/>
+    <x v="4"/>
+    <n v="5"/>
+    <s v="letni"/>
+    <m/>
+    <s v="Łukasz Piwowar"/>
+  </r>
+  <r>
+    <s v="Kurs projektowania aplikacji w PHP"/>
+    <x v="4"/>
+    <n v="5"/>
+    <s v="letni"/>
+    <m/>
+    <s v="Paweł Rajba"/>
+  </r>
+  <r>
+    <s v="Kurs: zaawansowane techniki w C++ i STL"/>
+    <x v="4"/>
+    <n v="5"/>
+    <s v="zimowy"/>
+    <m/>
+    <s v="Paweł Rzechonek"/>
+  </r>
+  <r>
+    <s v="Modelowanie finansowych instrumentów pochodnych z zastosowaniem języka funkcyjnego F#"/>
+    <x v="4"/>
+    <n v="2"/>
+    <s v="nieokreślony"/>
+    <m/>
+    <s v="Jan Otop"/>
+  </r>
+  <r>
+    <s v="Optymalizacja głębokich sieci neuronowych na urządzenia IoT"/>
+    <x v="4"/>
+    <n v="3"/>
+    <s v="zimowy"/>
+    <m/>
+    <s v="Jan Otop"/>
+  </r>
+  <r>
+    <s v="Praktyczne zarządzanie systemami IT (Q2)"/>
+    <x v="4"/>
+    <n v="3"/>
+    <s v="zimowy"/>
+    <m/>
+    <s v="Marcin Włodarczak"/>
+  </r>
+  <r>
+    <s v="Kurs: Praktyczne aspekty rozwoju oprogramowania"/>
+    <x v="5"/>
+    <n v="3"/>
+    <s v="letni"/>
+    <s v="IO"/>
+    <s v="Małgorzata Biernacka"/>
+  </r>
+  <r>
+    <s v="Kurs ½ (Q2): Podstawy administrowania systemami FreeBSD i OpenBSD"/>
+    <x v="5"/>
+    <n v="3"/>
+    <s v="zimowy"/>
+    <m/>
+    <s v="Tomasz Wierzbicki"/>
+  </r>
+  <r>
+    <s v="Kurs administrowania systemem Linux"/>
+    <x v="5"/>
+    <n v="5"/>
+    <s v="letni"/>
+    <m/>
+    <s v="Tomasz Wierzbicki"/>
+  </r>
+  <r>
+    <s v="Kurs Blendera"/>
+    <x v="5"/>
+    <n v="5"/>
+    <s v="letni"/>
+    <m/>
+    <s v="Małgorzata Biernacka"/>
+  </r>
+  <r>
+    <s v="Kurs: Metodyki zwinne wytwarzania oprogramowania"/>
+    <x v="5"/>
+    <n v="5"/>
+    <s v="zimowy"/>
+    <m/>
+    <s v="Marcin Młotkowski"/>
+  </r>
+  <r>
+    <s v="Kurs modelowania 3D i wizualizacji w programie SketchUp"/>
+    <x v="5"/>
+    <n v="5"/>
+    <s v="letni"/>
+    <m/>
+    <s v="Łukasz Piwowar"/>
+  </r>
+  <r>
+    <s v="Kurs: Nowoczesne języki przetwarzania danych: Python, R i Matlab"/>
+    <x v="5"/>
+    <n v="5"/>
+    <s v="letni"/>
+    <m/>
+    <s v="Jan Chorowski"/>
+  </r>
+  <r>
+    <s v="Kurs projektowania aplikacji z bazami danych"/>
+    <x v="5"/>
+    <n v="5"/>
+    <s v="zimowy"/>
+    <s v="BD"/>
+    <s v="Paweł Rajba"/>
+  </r>
+  <r>
+    <s v="Kurs: React"/>
+    <x v="5"/>
+    <n v="5"/>
+    <s v="letni"/>
+    <m/>
+    <s v="Kamil Matuszewski"/>
+  </r>
+  <r>
+    <s v="Kurs: Tworzenie aplikacji frontendowych"/>
+    <x v="5"/>
+    <n v="5"/>
+    <s v="letni"/>
+    <m/>
+    <s v="Kamil Matuszewski"/>
+  </r>
+  <r>
+    <s v="Kurs: Wybrane elementy praktyki projektowania oprogramowania"/>
+    <x v="5"/>
+    <n v="5"/>
+    <s v="zimowy"/>
+    <m/>
+    <s v="Wiktor Zychla"/>
+  </r>
+  <r>
+    <s v="Kurs: Zaawansowane technologie Javy"/>
+    <x v="5"/>
+    <n v="5"/>
+    <s v="letni"/>
+    <m/>
+    <s v="Paweł Rzechonek"/>
+  </r>
+  <r>
+    <s v="Kurs: Zaawansowane technologie Javy"/>
+    <x v="5"/>
+    <n v="5"/>
+    <s v="letni"/>
+    <m/>
+    <s v="Paweł Rzechonek"/>
+  </r>
+  <r>
+    <s v="Podstawy elektroniki, elektrotechniki i miernictwa"/>
+    <x v="5"/>
+    <n v="4"/>
+    <s v="zimowy"/>
+    <m/>
+    <s v="Radosław Wasielewski"/>
+  </r>
+  <r>
+    <s v="Algebra"/>
+    <x v="6"/>
+    <n v="8"/>
+    <s v="letni"/>
+    <m/>
+    <s v="Artur Jeż"/>
+  </r>
+  <r>
+    <s v="Analiza matematyczna"/>
+    <x v="6"/>
+    <n v="10"/>
+    <s v="zimowy"/>
+    <m/>
+    <s v="Maciej Paluszyński"/>
+  </r>
+  <r>
+    <s v="Logika dla informatyków"/>
+    <x v="6"/>
+    <n v="8"/>
+    <s v="zimowy"/>
+    <m/>
+    <s v="Witold Charatonik"/>
+  </r>
+  <r>
+    <s v="Metody programowania"/>
+    <x v="6"/>
+    <n v="9"/>
+    <s v="letni"/>
+    <m/>
+    <s v="Marek Materzok"/>
+  </r>
+  <r>
+    <s v="Algorytmy i struktury danych"/>
+    <x v="7"/>
+    <n v="6"/>
+    <s v="nieokreślony"/>
+    <m/>
+    <s v="nieznany"/>
+  </r>
+  <r>
+    <s v="Matematyka dyskretna (L)"/>
+    <x v="7"/>
+    <n v="6"/>
+    <s v="zimowy"/>
+    <m/>
+    <s v="Katarzyna Paluch"/>
+  </r>
+  <r>
+    <s v="Analiza numeryczna"/>
+    <x v="7"/>
+    <n v="8"/>
+    <s v="zimowy"/>
+    <m/>
+    <s v="Paweł Woźny"/>
+  </r>
+  <r>
+    <s v="Funkcyjny projekt programistyczny"/>
+    <x v="8"/>
+    <n v="4"/>
+    <s v="letni"/>
+    <m/>
+    <s v="Filip Sieczkowski"/>
+  </r>
+  <r>
+    <s v="Projects by Volvo IT"/>
+    <x v="8"/>
+    <n v="6"/>
+    <s v="nieokreślony"/>
+    <m/>
+    <s v="Jan Otop"/>
+  </r>
+  <r>
+    <s v="Projekt: autonomiczna jazda łazikiem"/>
+    <x v="8"/>
+    <n v="4"/>
+    <s v="zimowy"/>
+    <m/>
+    <s v="Jan Otop"/>
+  </r>
+  <r>
+    <s v="Projekt: bazy danych 2"/>
+    <x v="8"/>
+    <n v="4"/>
+    <s v="letni"/>
+    <m/>
+    <s v="Piotr Wieczorek"/>
+  </r>
+  <r>
+    <s v="Projekt: boty konwersacyjne i odpowiadanie na pytania"/>
+    <x v="8"/>
+    <n v="6"/>
+    <s v="zimowy"/>
+    <m/>
+    <s v="Paweł Rychlikowski"/>
+  </r>
+  <r>
+    <s v="Innovative Projects by Nokia"/>
+    <x v="8"/>
+    <n v="4"/>
+    <s v="nieokreślony"/>
+    <m/>
+    <s v="Małgorzata Biernacka"/>
+  </r>
+  <r>
+    <s v="Projekt: Budowa i rozwój analogu łazika marsjańskiego"/>
+    <x v="8"/>
+    <n v="4"/>
+    <s v="nieokreślony"/>
+    <m/>
+    <s v="Marek Materzok"/>
+  </r>
+  <r>
+    <s v="Projekt: Deep Learning"/>
+    <x v="8"/>
+    <n v="6"/>
+    <s v="letni"/>
+    <m/>
+    <s v="Rafał Nowak"/>
+  </r>
+  <r>
+    <s v="Projekt: Digital Experience &amp; Internet of Things"/>
+    <x v="8"/>
+    <n v="4"/>
+    <s v="zimowy"/>
+    <m/>
+    <s v="Paweł Rajba"/>
+  </r>
+  <r>
+    <s v="Projekt: Ewolucyjne konstruowanie pojazdów kołowych 2D"/>
+    <x v="8"/>
+    <n v="6"/>
+    <s v="letni"/>
+    <m/>
+    <s v="Piotr Wnuk-Lipiński"/>
+  </r>
+  <r>
+    <s v="Projekt: Kompetytywna Sztuczna Inteligencja"/>
+    <x v="8"/>
+    <n v="4"/>
+    <s v="letni"/>
+    <m/>
+    <s v="Jakub Kowalski"/>
+  </r>
+  <r>
+    <s v="Projekt: Kompilacja efektów algebraicznych"/>
+    <x v="8"/>
+    <n v="4"/>
+    <s v="letni"/>
+    <m/>
+    <s v="Piotr Polesiuk"/>
+  </r>
+  <r>
+    <s v="Projekt: Machine Learning for Recommender Systems"/>
+    <x v="8"/>
+    <n v="4"/>
+    <s v="letni"/>
+    <m/>
+    <s v="Piotr Wnuk-Lipiński"/>
+  </r>
+  <r>
+    <s v="Projekt: Produkcja demoscenowa"/>
+    <x v="8"/>
+    <n v="4"/>
+    <s v="zimowy"/>
+    <m/>
+    <s v="Krystian Bacławski"/>
+  </r>
+  <r>
+    <s v="Projekt: Programowanie multimediów, interaktywna grafika 3D"/>
+    <x v="8"/>
+    <n v="4"/>
+    <s v="zimowy"/>
+    <m/>
+    <s v="Krzysztof Tabisz"/>
+  </r>
+  <r>
+    <s v="Warsztaty: Deep Learning"/>
+    <x v="8"/>
+    <n v="4"/>
+    <s v="letni"/>
+    <s v="DS, PD"/>
+    <s v="Rafał Nowak"/>
+  </r>
+  <r>
+    <s v="Proseminarium: Organizacja systemów komputerowych"/>
+    <x v="9"/>
+    <n v="3"/>
+    <s v="zimowy"/>
+    <m/>
+    <s v="Piotr Witkowski"/>
+  </r>
+  <r>
+    <s v="Proseminarium: Bezpieczeństwo i ochrona informacji"/>
+    <x v="9"/>
+    <n v="3"/>
+    <s v="zimowy"/>
+    <m/>
+    <s v="Leszek Grocholski"/>
+  </r>
+  <r>
+    <s v="Proseminarium: Linux kawałek po kawałku"/>
+    <x v="9"/>
+    <n v="3"/>
+    <s v="letni"/>
+    <m/>
+    <s v="Tomasz Wierzbicki"/>
+  </r>
+  <r>
+    <s v="Proseminarium Młody Badacz"/>
+    <x v="9"/>
+    <n v="2"/>
+    <s v="letni"/>
+    <m/>
+    <s v="Jan Otop"/>
+  </r>
+  <r>
+    <s v="Proseminarium: Retroinformatyka"/>
+    <x v="9"/>
+    <n v="3"/>
+    <s v="letni"/>
+    <m/>
+    <s v="Tomasz Wierzbicki"/>
+  </r>
+  <r>
+    <s v="Proseminarium: Testowanie oprogramowania"/>
+    <x v="9"/>
+    <n v="3"/>
+    <s v="letni"/>
+    <s v="IO"/>
+    <s v="Leszek Grocholski"/>
+  </r>
+  <r>
+    <s v="Proseminarium: Wizualizacja danych"/>
+    <x v="9"/>
+    <n v="3"/>
+    <s v="zimowy"/>
+    <m/>
+    <s v="Jakub Michaliszyn"/>
+  </r>
+  <r>
+    <s v="Proseminarium: Zaawansowane administrowanie systemem Linux"/>
+    <x v="9"/>
+    <n v="3"/>
+    <s v="zimowy"/>
+    <m/>
+    <s v="Tomasz Wierzbicki"/>
+  </r>
+  <r>
+    <s v="Rozstrzygalność i złożoność logik motywowanych informatyką"/>
+    <x v="10"/>
+    <n v="3"/>
+    <s v="zimowy"/>
+    <m/>
+    <s v="Emanuel Kieroński"/>
+  </r>
+  <r>
+    <s v="Seminarium: Administracja systemami Windows Server"/>
+    <x v="10"/>
+    <n v="6"/>
+    <s v="zimowy"/>
+    <m/>
+    <s v="Paweł Rajba"/>
+  </r>
+  <r>
+    <s v="Seminarium: Algebry procesów"/>
+    <x v="10"/>
+    <n v="6"/>
+    <s v="letni"/>
+    <m/>
+    <s v="Małgorzata Biernacka"/>
+  </r>
+  <r>
+    <s v="Seminarium: Algorytmy heurystyczne"/>
+    <x v="10"/>
+    <n v="3"/>
+    <s v="letni"/>
+    <s v="AZ"/>
+    <s v="Paweł Rzechonek"/>
+  </r>
+  <r>
+    <s v="Seminarium: Algorytmy numeryczne i graficzne"/>
+    <x v="10"/>
+    <n v="3"/>
+    <s v="letni"/>
+    <s v="NG"/>
+    <s v="Paweł Woźny"/>
+  </r>
+  <r>
+    <s v="Seminarium: Algorytmy probabilistyczne"/>
+    <x v="10"/>
+    <n v="3"/>
+    <s v="zimowy"/>
+    <s v="AZ"/>
+    <s v="Marek Piotrów"/>
+  </r>
+  <r>
+    <s v="Seminarium: Algorytmy rozproszone"/>
+    <x v="10"/>
+    <n v="6"/>
+    <s v="zimowy"/>
+    <m/>
+    <s v="Marek Piotrów"/>
+  </r>
+  <r>
+    <s v="Seminarium: Bezpieczeństwo aplikacji"/>
+    <x v="10"/>
+    <n v="3"/>
+    <s v="zimowy"/>
+    <s v="SY"/>
+    <s v="Paweł Rajba"/>
+  </r>
+  <r>
+    <s v="Seminarium: Synteza i analiza mowy"/>
+    <x v="10"/>
+    <n v="6"/>
+    <s v="zimowy"/>
+    <m/>
+    <s v="Paweł Rychlikowski"/>
+  </r>
+  <r>
+    <s v="Seminarium: Krzywe i powierzchnie w grafice komputerowej"/>
+    <x v="10"/>
+    <n v="3"/>
+    <s v="letni"/>
+    <m/>
+    <s v="Paweł Woźny"/>
+  </r>
+  <r>
+    <s v="Seminarium: Sieci neuronowe i statystyka"/>
+    <x v="10"/>
+    <n v="3"/>
+    <s v="letni"/>
+    <s v="PD"/>
+    <s v="Jan Chorowski"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ilość przedmiotów po rodzaju" cacheId="0" dataCaption="" compact="0" compactData="0">
-  <location ref="A1:B13" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields>
-    <pivotField name="nazwa przedmiotu" dataField="1" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="138"/>
-        <item x="139"/>
-        <item x="140"/>
-        <item x="141"/>
-        <item x="142"/>
-        <item x="143"/>
-        <item x="144"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="ilość przedmiotów po rodzaju" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" compact="0" compactData="0">
+  <location ref="A1:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField name="nazwa przedmiotu" dataField="1" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
     <pivotField name="rodzaj" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
-      <items>
+      <items count="12">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -1335,122 +2277,69 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField name="ECTS" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField name="semestr" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField name="tagi" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField name="opiekun" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField name="ECTS" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="semestr" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="tagi" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="opiekun" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
   </pivotFields>
-  <rowFields>
+  <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <dataFields>
+  <rowItems count="12">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
     <dataField name="ilość" fld="0" subtotal="count" baseField="0"/>
   </dataFields>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1640,28 +2529,30 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="B117" sqref="B117"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="78.11"/>
-    <col customWidth="1" min="2" max="5" width="10.56"/>
-    <col customWidth="1" min="6" max="6" width="18.44"/>
-    <col customWidth="1" min="7" max="8" width="10.56"/>
-    <col customWidth="1" min="9" max="9" width="36.78"/>
-    <col customWidth="1" min="10" max="26" width="10.56"/>
+    <col min="1" max="1" width="78.1640625" customWidth="1"/>
+    <col min="2" max="5" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="18.5" customWidth="1"/>
+    <col min="7" max="8" width="10.5" customWidth="1"/>
+    <col min="9" max="9" width="36.83203125" customWidth="1"/>
+    <col min="10" max="26" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1683,7 +2574,7 @@
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
@@ -1691,7 +2582,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>8</v>
@@ -1701,7 +2592,7 @@
       </c>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>10</v>
       </c>
@@ -1709,7 +2600,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>8</v>
@@ -1719,7 +2610,7 @@
       </c>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
@@ -1727,7 +2618,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>13</v>
@@ -1737,7 +2628,7 @@
       </c>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
@@ -1745,7 +2636,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>16</v>
@@ -1755,7 +2646,7 @@
       </c>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>18</v>
       </c>
@@ -1763,7 +2654,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>16</v>
@@ -1773,7 +2664,7 @@
       </c>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>20</v>
       </c>
@@ -1781,7 +2672,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>16</v>
@@ -1791,7 +2682,7 @@
       </c>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>21</v>
       </c>
@@ -1799,7 +2690,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>8</v>
@@ -1809,7 +2700,7 @@
       </c>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>22</v>
       </c>
@@ -1817,7 +2708,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>8</v>
@@ -1827,7 +2718,7 @@
       </c>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>23</v>
       </c>
@@ -1835,7 +2726,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>8</v>
@@ -1845,7 +2736,7 @@
       </c>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>24</v>
       </c>
@@ -1853,7 +2744,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>16</v>
@@ -1863,7 +2754,7 @@
       </c>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>26</v>
       </c>
@@ -1871,7 +2762,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>16</v>
@@ -1881,7 +2772,7 @@
       </c>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>27</v>
       </c>
@@ -1889,7 +2780,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>8</v>
@@ -1899,7 +2790,7 @@
       </c>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>28</v>
       </c>
@@ -1907,7 +2798,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>8</v>
@@ -1917,7 +2808,7 @@
       </c>
       <c r="H14" s="9"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>29</v>
       </c>
@@ -1925,7 +2816,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>13</v>
@@ -1935,7 +2826,7 @@
       </c>
       <c r="H15" s="9"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>30</v>
       </c>
@@ -1943,7 +2834,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>16</v>
@@ -1956,7 +2847,7 @@
       </c>
       <c r="H16" s="10"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>33</v>
       </c>
@@ -1964,7 +2855,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>8</v>
@@ -1974,7 +2865,7 @@
       </c>
       <c r="H17" s="10"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>34</v>
       </c>
@@ -1982,7 +2873,7 @@
         <v>7</v>
       </c>
       <c r="C18" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>8</v>
@@ -1992,7 +2883,7 @@
       </c>
       <c r="H18" s="10"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>35</v>
       </c>
@@ -2000,7 +2891,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>8</v>
@@ -2010,7 +2901,7 @@
       </c>
       <c r="H19" s="10"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>36</v>
       </c>
@@ -2018,7 +2909,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>8</v>
@@ -2028,7 +2919,7 @@
       </c>
       <c r="H20" s="10"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>37</v>
       </c>
@@ -2036,7 +2927,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>13</v>
@@ -2049,7 +2940,7 @@
       </c>
       <c r="H21" s="10"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>39</v>
       </c>
@@ -2057,7 +2948,7 @@
         <v>7</v>
       </c>
       <c r="C22" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>8</v>
@@ -2070,7 +2961,7 @@
       </c>
       <c r="H22" s="10"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>40</v>
       </c>
@@ -2078,7 +2969,7 @@
         <v>7</v>
       </c>
       <c r="C23" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>8</v>
@@ -2088,7 +2979,7 @@
       </c>
       <c r="H23" s="10"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>41</v>
       </c>
@@ -2096,7 +2987,7 @@
         <v>7</v>
       </c>
       <c r="C24" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>13</v>
@@ -2106,7 +2997,7 @@
       </c>
       <c r="H24" s="10"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>42</v>
       </c>
@@ -2114,7 +3005,7 @@
         <v>7</v>
       </c>
       <c r="C25" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>8</v>
@@ -2124,7 +3015,7 @@
       </c>
       <c r="H25" s="10"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>43</v>
       </c>
@@ -2132,7 +3023,7 @@
         <v>7</v>
       </c>
       <c r="C26" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>8</v>
@@ -2142,7 +3033,7 @@
       </c>
       <c r="H26" s="10"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>44</v>
       </c>
@@ -2150,7 +3041,7 @@
         <v>7</v>
       </c>
       <c r="C27" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>16</v>
@@ -2160,7 +3051,7 @@
       </c>
       <c r="H27" s="10"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>45</v>
       </c>
@@ -2168,7 +3059,7 @@
         <v>7</v>
       </c>
       <c r="C28" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>8</v>
@@ -2178,7 +3069,7 @@
       </c>
       <c r="H28" s="10"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>46</v>
       </c>
@@ -2186,7 +3077,7 @@
         <v>7</v>
       </c>
       <c r="C29" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>16</v>
@@ -2196,7 +3087,7 @@
       </c>
       <c r="H29" s="10"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>47</v>
       </c>
@@ -2204,7 +3095,7 @@
         <v>7</v>
       </c>
       <c r="C30" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>8</v>
@@ -2214,7 +3105,7 @@
       </c>
       <c r="H30" s="10"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>48</v>
       </c>
@@ -2222,7 +3113,7 @@
         <v>7</v>
       </c>
       <c r="C31" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>16</v>
@@ -2234,7 +3125,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>49</v>
       </c>
@@ -2242,7 +3133,7 @@
         <v>7</v>
       </c>
       <c r="C32" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>8</v>
@@ -2251,7 +3142,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>50</v>
       </c>
@@ -2259,7 +3150,7 @@
         <v>7</v>
       </c>
       <c r="C33" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>8</v>
@@ -2268,7 +3159,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>51</v>
       </c>
@@ -2276,7 +3167,7 @@
         <v>7</v>
       </c>
       <c r="C34" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>13</v>
@@ -2285,7 +3176,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>52</v>
       </c>
@@ -2293,7 +3184,7 @@
         <v>53</v>
       </c>
       <c r="C35" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>16</v>
@@ -2302,7 +3193,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>55</v>
       </c>
@@ -2310,7 +3201,7 @@
         <v>53</v>
       </c>
       <c r="C36" s="8">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>16</v>
@@ -2319,7 +3210,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>57</v>
       </c>
@@ -2327,7 +3218,7 @@
         <v>53</v>
       </c>
       <c r="C37" s="8">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>8</v>
@@ -2336,7 +3227,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
         <v>59</v>
       </c>
@@ -2344,7 +3235,7 @@
         <v>53</v>
       </c>
       <c r="C38" s="8">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>16</v>
@@ -2353,7 +3244,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>61</v>
       </c>
@@ -2361,7 +3252,7 @@
         <v>53</v>
       </c>
       <c r="C39" s="8">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>16</v>
@@ -2370,7 +3261,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
         <v>63</v>
       </c>
@@ -2378,7 +3269,7 @@
         <v>53</v>
       </c>
       <c r="C40" s="8">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>8</v>
@@ -2390,7 +3281,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
         <v>66</v>
       </c>
@@ -2398,7 +3289,7 @@
         <v>53</v>
       </c>
       <c r="C41" s="8">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>16</v>
@@ -2407,7 +3298,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
         <v>68</v>
       </c>
@@ -2415,7 +3306,7 @@
         <v>53</v>
       </c>
       <c r="C42" s="8">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>8</v>
@@ -2424,7 +3315,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
         <v>70</v>
       </c>
@@ -2432,7 +3323,7 @@
         <v>53</v>
       </c>
       <c r="C43" s="8">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>16</v>
@@ -2444,7 +3335,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
         <v>72</v>
       </c>
@@ -2452,7 +3343,7 @@
         <v>53</v>
       </c>
       <c r="C44" s="8">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>16</v>
@@ -2464,7 +3355,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
         <v>73</v>
       </c>
@@ -2472,7 +3363,7 @@
         <v>74</v>
       </c>
       <c r="C45" s="8">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>8</v>
@@ -2481,7 +3372,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>76</v>
       </c>
@@ -2489,7 +3380,7 @@
         <v>74</v>
       </c>
       <c r="C46" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>16</v>
@@ -2498,7 +3389,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
         <v>78</v>
       </c>
@@ -2506,7 +3397,7 @@
         <v>74</v>
       </c>
       <c r="C47" s="8">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>8</v>
@@ -2518,7 +3409,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
         <v>80</v>
       </c>
@@ -2526,7 +3417,7 @@
         <v>74</v>
       </c>
       <c r="C48" s="8">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>8</v>
@@ -2538,7 +3429,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
         <v>83</v>
       </c>
@@ -2546,7 +3437,7 @@
         <v>74</v>
       </c>
       <c r="C49" s="8">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>16</v>
@@ -2558,7 +3449,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
         <v>86</v>
       </c>
@@ -2566,7 +3457,7 @@
         <v>74</v>
       </c>
       <c r="C50" s="8">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>16</v>
@@ -2575,7 +3466,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
         <v>88</v>
       </c>
@@ -2583,7 +3474,7 @@
         <v>74</v>
       </c>
       <c r="C51" s="8">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>16</v>
@@ -2592,7 +3483,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
         <v>89</v>
       </c>
@@ -2600,7 +3491,7 @@
         <v>74</v>
       </c>
       <c r="C52" s="8">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>8</v>
@@ -2609,7 +3500,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
         <v>91</v>
       </c>
@@ -2617,7 +3508,7 @@
         <v>74</v>
       </c>
       <c r="C53" s="8">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>8</v>
@@ -2626,7 +3517,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
         <v>93</v>
       </c>
@@ -2634,7 +3525,7 @@
         <v>74</v>
       </c>
       <c r="C54" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>16</v>
@@ -2646,7 +3537,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
         <v>95</v>
       </c>
@@ -2654,7 +3545,7 @@
         <v>74</v>
       </c>
       <c r="C55" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>8</v>
@@ -2663,7 +3554,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
         <v>96</v>
       </c>
@@ -2671,7 +3562,7 @@
         <v>74</v>
       </c>
       <c r="C56" s="8">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>8</v>
@@ -2683,7 +3574,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
         <v>99</v>
       </c>
@@ -2691,7 +3582,7 @@
         <v>74</v>
       </c>
       <c r="C57" s="8">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>16</v>
@@ -2700,7 +3591,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
         <v>101</v>
       </c>
@@ -2708,7 +3599,7 @@
         <v>74</v>
       </c>
       <c r="C58" s="8">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>16</v>
@@ -2717,7 +3608,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
         <v>103</v>
       </c>
@@ -2725,7 +3616,7 @@
         <v>74</v>
       </c>
       <c r="C59" s="8">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D59" s="8" t="s">
         <v>8</v>
@@ -2737,7 +3628,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
         <v>106</v>
       </c>
@@ -2745,7 +3636,7 @@
         <v>74</v>
       </c>
       <c r="C60" s="8">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>8</v>
@@ -2757,7 +3648,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
         <v>109</v>
       </c>
@@ -2765,7 +3656,7 @@
         <v>74</v>
       </c>
       <c r="C61" s="8">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>16</v>
@@ -2777,7 +3668,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
         <v>111</v>
       </c>
@@ -2785,7 +3676,7 @@
         <v>74</v>
       </c>
       <c r="C62" s="8">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>8</v>
@@ -2797,7 +3688,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
         <v>113</v>
       </c>
@@ -2805,7 +3696,7 @@
         <v>74</v>
       </c>
       <c r="C63" s="8">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>8</v>
@@ -2814,7 +3705,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
         <v>114</v>
       </c>
@@ -2822,7 +3713,7 @@
         <v>74</v>
       </c>
       <c r="C64" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>8</v>
@@ -2831,7 +3722,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
         <v>116</v>
       </c>
@@ -2839,7 +3730,7 @@
         <v>74</v>
       </c>
       <c r="C65" s="8">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>16</v>
@@ -2848,7 +3739,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
         <v>118</v>
       </c>
@@ -2856,7 +3747,7 @@
         <v>74</v>
       </c>
       <c r="C66" s="8">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>8</v>
@@ -2865,7 +3756,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
         <v>120</v>
       </c>
@@ -2873,7 +3764,7 @@
         <v>121</v>
       </c>
       <c r="C67" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D67" s="8" t="s">
         <v>8</v>
@@ -2882,7 +3773,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
         <v>123</v>
       </c>
@@ -2890,7 +3781,7 @@
         <v>121</v>
       </c>
       <c r="C68" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>16</v>
@@ -2899,7 +3790,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
         <v>125</v>
       </c>
@@ -2907,7 +3798,7 @@
         <v>121</v>
       </c>
       <c r="C69" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D69" s="8" t="s">
         <v>16</v>
@@ -2916,7 +3807,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
         <v>126</v>
       </c>
@@ -2924,7 +3815,7 @@
         <v>121</v>
       </c>
       <c r="C70" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>16</v>
@@ -2933,7 +3824,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
         <v>127</v>
       </c>
@@ -2941,7 +3832,7 @@
         <v>121</v>
       </c>
       <c r="C71" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>8</v>
@@ -2950,7 +3841,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
         <v>128</v>
       </c>
@@ -2958,7 +3849,7 @@
         <v>121</v>
       </c>
       <c r="C72" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D72" s="8" t="s">
         <v>16</v>
@@ -2967,7 +3858,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
         <v>129</v>
       </c>
@@ -2975,7 +3866,7 @@
         <v>121</v>
       </c>
       <c r="C73" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>16</v>
@@ -2984,7 +3875,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
         <v>131</v>
       </c>
@@ -2992,7 +3883,7 @@
         <v>121</v>
       </c>
       <c r="C74" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>16</v>
@@ -3001,7 +3892,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="8" t="s">
         <v>132</v>
       </c>
@@ -3009,7 +3900,7 @@
         <v>121</v>
       </c>
       <c r="C75" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>16</v>
@@ -3018,7 +3909,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
         <v>134</v>
       </c>
@@ -3026,7 +3917,7 @@
         <v>121</v>
       </c>
       <c r="C76" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D76" s="8" t="s">
         <v>8</v>
@@ -3035,7 +3926,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
         <v>136</v>
       </c>
@@ -3043,7 +3934,7 @@
         <v>137</v>
       </c>
       <c r="C77" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D77" s="8" t="s">
         <v>13</v>
@@ -3052,7 +3943,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
         <v>139</v>
       </c>
@@ -3060,7 +3951,7 @@
         <v>137</v>
       </c>
       <c r="C78" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D78" s="8" t="s">
         <v>8</v>
@@ -3069,7 +3960,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
         <v>141</v>
       </c>
@@ -3077,7 +3968,7 @@
         <v>137</v>
       </c>
       <c r="C79" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>16</v>
@@ -3086,7 +3977,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
         <v>142</v>
       </c>
@@ -3094,7 +3985,7 @@
         <v>137</v>
       </c>
       <c r="C80" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>16</v>
@@ -3103,7 +3994,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
         <v>143</v>
       </c>
@@ -3111,7 +4002,7 @@
         <v>137</v>
       </c>
       <c r="C81" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>8</v>
@@ -3120,7 +4011,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
         <v>144</v>
       </c>
@@ -3128,7 +4019,7 @@
         <v>137</v>
       </c>
       <c r="C82" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>16</v>
@@ -3137,7 +4028,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
         <v>146</v>
       </c>
@@ -3145,7 +4036,7 @@
         <v>137</v>
       </c>
       <c r="C83" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>16</v>
@@ -3154,7 +4045,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="s">
         <v>148</v>
       </c>
@@ -3162,7 +4053,7 @@
         <v>137</v>
       </c>
       <c r="C84" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>8</v>
@@ -3171,7 +4062,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="8" t="s">
         <v>150</v>
       </c>
@@ -3179,7 +4070,7 @@
         <v>137</v>
       </c>
       <c r="C85" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>16</v>
@@ -3188,7 +4079,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="8" t="s">
         <v>152</v>
       </c>
@@ -3196,7 +4087,7 @@
         <v>137</v>
       </c>
       <c r="C86" s="8">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D86" s="8" t="s">
         <v>16</v>
@@ -3205,7 +4096,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="8" t="s">
         <v>153</v>
       </c>
@@ -3213,7 +4104,7 @@
         <v>137</v>
       </c>
       <c r="C87" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>16</v>
@@ -3222,7 +4113,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="8" t="s">
         <v>154</v>
       </c>
@@ -3230,7 +4121,7 @@
         <v>137</v>
       </c>
       <c r="C88" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D88" s="8" t="s">
         <v>16</v>
@@ -3239,7 +4130,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="8" t="s">
         <v>155</v>
       </c>
@@ -3247,7 +4138,7 @@
         <v>137</v>
       </c>
       <c r="C89" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D89" s="8" t="s">
         <v>8</v>
@@ -3256,7 +4147,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="8" t="s">
         <v>156</v>
       </c>
@@ -3264,7 +4155,7 @@
         <v>137</v>
       </c>
       <c r="C90" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>16</v>
@@ -3276,7 +4167,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="8" t="s">
         <v>159</v>
       </c>
@@ -3284,7 +4175,7 @@
         <v>137</v>
       </c>
       <c r="C91" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>16</v>
@@ -3293,7 +4184,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="8" t="s">
         <v>160</v>
       </c>
@@ -3301,7 +4192,7 @@
         <v>137</v>
       </c>
       <c r="C92" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D92" s="8" t="s">
         <v>8</v>
@@ -3310,7 +4201,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="8" t="s">
         <v>161</v>
       </c>
@@ -3318,7 +4209,7 @@
         <v>137</v>
       </c>
       <c r="C93" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>8</v>
@@ -3327,7 +4218,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="8" t="s">
         <v>162</v>
       </c>
@@ -3335,7 +4226,7 @@
         <v>137</v>
       </c>
       <c r="C94" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D94" s="8" t="s">
         <v>16</v>
@@ -3344,7 +4235,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="8" t="s">
         <v>163</v>
       </c>
@@ -3352,7 +4243,7 @@
         <v>137</v>
       </c>
       <c r="C95" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D95" s="8" t="s">
         <v>13</v>
@@ -3361,7 +4252,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="8" t="s">
         <v>164</v>
       </c>
@@ -3369,7 +4260,7 @@
         <v>137</v>
       </c>
       <c r="C96" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D96" s="8" t="s">
         <v>16</v>
@@ -3378,7 +4269,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="8" t="s">
         <v>165</v>
       </c>
@@ -3386,7 +4277,7 @@
         <v>137</v>
       </c>
       <c r="C97" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D97" s="8" t="s">
         <v>16</v>
@@ -3395,7 +4286,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="8" t="s">
         <v>166</v>
       </c>
@@ -3403,7 +4294,7 @@
         <v>167</v>
       </c>
       <c r="C98" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D98" s="8" t="s">
         <v>8</v>
@@ -3415,7 +4306,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="8" t="s">
         <v>168</v>
       </c>
@@ -3423,7 +4314,7 @@
         <v>167</v>
       </c>
       <c r="C99" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D99" s="8" t="s">
         <v>16</v>
@@ -3432,7 +4323,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="8" t="s">
         <v>169</v>
       </c>
@@ -3440,7 +4331,7 @@
         <v>167</v>
       </c>
       <c r="C100" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D100" s="8" t="s">
         <v>8</v>
@@ -3449,7 +4340,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="8" t="s">
         <v>170</v>
       </c>
@@ -3457,7 +4348,7 @@
         <v>167</v>
       </c>
       <c r="C101" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D101" s="8" t="s">
         <v>8</v>
@@ -3466,7 +4357,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="8" t="s">
         <v>171</v>
       </c>
@@ -3474,7 +4365,7 @@
         <v>167</v>
       </c>
       <c r="C102" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D102" s="8" t="s">
         <v>16</v>
@@ -3483,7 +4374,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="8" t="s">
         <v>172</v>
       </c>
@@ -3491,7 +4382,7 @@
         <v>167</v>
       </c>
       <c r="C103" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D103" s="8" t="s">
         <v>8</v>
@@ -3500,7 +4391,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="8" t="s">
         <v>173</v>
       </c>
@@ -3508,7 +4399,7 @@
         <v>167</v>
       </c>
       <c r="C104" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D104" s="8" t="s">
         <v>8</v>
@@ -3517,7 +4408,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="8" t="s">
         <v>175</v>
       </c>
@@ -3525,7 +4416,7 @@
         <v>167</v>
       </c>
       <c r="C105" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D105" s="8" t="s">
         <v>16</v>
@@ -3537,7 +4428,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="8" t="s">
         <v>176</v>
       </c>
@@ -3545,7 +4436,7 @@
         <v>167</v>
       </c>
       <c r="C106" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D106" s="8" t="s">
         <v>8</v>
@@ -3554,7 +4445,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="8" t="s">
         <v>178</v>
       </c>
@@ -3562,7 +4453,7 @@
         <v>167</v>
       </c>
       <c r="C107" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D107" s="8" t="s">
         <v>8</v>
@@ -3571,7 +4462,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="8" t="s">
         <v>179</v>
       </c>
@@ -3579,7 +4470,7 @@
         <v>167</v>
       </c>
       <c r="C108" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D108" s="8" t="s">
         <v>16</v>
@@ -3588,7 +4479,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="8" t="s">
         <v>180</v>
       </c>
@@ -3596,7 +4487,7 @@
         <v>167</v>
       </c>
       <c r="C109" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D109" s="8" t="s">
         <v>8</v>
@@ -3605,7 +4496,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="8" t="s">
         <v>180</v>
       </c>
@@ -3613,7 +4504,7 @@
         <v>167</v>
       </c>
       <c r="C110" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D110" s="8" t="s">
         <v>8</v>
@@ -3622,7 +4513,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="8" t="s">
         <v>181</v>
       </c>
@@ -3630,7 +4521,7 @@
         <v>167</v>
       </c>
       <c r="C111" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D111" s="8" t="s">
         <v>16</v>
@@ -3639,15 +4530,15 @@
         <v>182</v>
       </c>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="B112" s="8" t="s">
-        <v>184</v>
+      <c r="B112" s="20" t="s">
+        <v>191</v>
       </c>
       <c r="C112" s="8">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="D112" s="8" t="s">
         <v>8</v>
@@ -3656,7 +4547,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="8" t="s">
         <v>186</v>
       </c>
@@ -3664,7 +4555,7 @@
         <v>184</v>
       </c>
       <c r="C113" s="8">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D113" s="8" t="s">
         <v>16</v>
@@ -3673,7 +4564,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="8" t="s">
         <v>188</v>
       </c>
@@ -3681,7 +4572,7 @@
         <v>184</v>
       </c>
       <c r="C114" s="8">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="D114" s="8" t="s">
         <v>16</v>
@@ -3690,15 +4581,15 @@
         <v>87</v>
       </c>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="B115" s="8" t="s">
-        <v>184</v>
+      <c r="B115" s="20" t="s">
+        <v>191</v>
       </c>
       <c r="C115" s="8">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="D115" s="8" t="s">
         <v>8</v>
@@ -3707,15 +4598,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="B116" s="8" t="s">
-        <v>191</v>
+      <c r="B116" s="20" t="s">
+        <v>245</v>
       </c>
       <c r="C116" s="8">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D116" s="8" t="s">
         <v>13</v>
@@ -3724,15 +4615,15 @@
         <v>192</v>
       </c>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="B117" s="8" t="s">
-        <v>191</v>
+      <c r="B117" s="20" t="s">
+        <v>244</v>
       </c>
       <c r="C117" s="8">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D117" s="8" t="s">
         <v>16</v>
@@ -3741,15 +4632,15 @@
         <v>194</v>
       </c>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="B118" s="8" t="s">
-        <v>191</v>
+      <c r="B118" s="20" t="s">
+        <v>244</v>
       </c>
       <c r="C118" s="8">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="D118" s="8" t="s">
         <v>16</v>
@@ -3758,7 +4649,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="8" t="s">
         <v>197</v>
       </c>
@@ -3766,7 +4657,7 @@
         <v>198</v>
       </c>
       <c r="C119" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D119" s="8" t="s">
         <v>8</v>
@@ -3775,7 +4666,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="8" t="s">
         <v>199</v>
       </c>
@@ -3783,7 +4674,7 @@
         <v>198</v>
       </c>
       <c r="C120" s="8">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D120" s="8" t="s">
         <v>13</v>
@@ -3792,7 +4683,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="8" t="s">
         <v>200</v>
       </c>
@@ -3800,7 +4691,7 @@
         <v>198</v>
       </c>
       <c r="C121" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D121" s="8" t="s">
         <v>16</v>
@@ -3809,7 +4700,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="8" t="s">
         <v>201</v>
       </c>
@@ -3817,7 +4708,7 @@
         <v>198</v>
       </c>
       <c r="C122" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D122" s="8" t="s">
         <v>8</v>
@@ -3826,7 +4717,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="8" t="s">
         <v>202</v>
       </c>
@@ -3834,7 +4725,7 @@
         <v>198</v>
       </c>
       <c r="C123" s="8">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D123" s="8" t="s">
         <v>16</v>
@@ -3843,7 +4734,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="8" t="s">
         <v>203</v>
       </c>
@@ -3851,7 +4742,7 @@
         <v>198</v>
       </c>
       <c r="C124" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D124" s="8" t="s">
         <v>13</v>
@@ -3860,7 +4751,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="8" t="s">
         <v>204</v>
       </c>
@@ -3868,7 +4759,7 @@
         <v>198</v>
       </c>
       <c r="C125" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D125" s="8" t="s">
         <v>13</v>
@@ -3877,7 +4768,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="8" t="s">
         <v>205</v>
       </c>
@@ -3885,7 +4776,7 @@
         <v>198</v>
       </c>
       <c r="C126" s="8">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D126" s="8" t="s">
         <v>8</v>
@@ -3894,7 +4785,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="8" t="s">
         <v>206</v>
       </c>
@@ -3902,7 +4793,7 @@
         <v>198</v>
       </c>
       <c r="C127" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D127" s="8" t="s">
         <v>16</v>
@@ -3911,7 +4802,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="8" t="s">
         <v>207</v>
       </c>
@@ -3919,7 +4810,7 @@
         <v>198</v>
       </c>
       <c r="C128" s="8">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D128" s="8" t="s">
         <v>8</v>
@@ -3928,7 +4819,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="8" t="s">
         <v>209</v>
       </c>
@@ -3936,7 +4827,7 @@
         <v>198</v>
       </c>
       <c r="C129" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D129" s="8" t="s">
         <v>8</v>
@@ -3945,7 +4836,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="8" t="s">
         <v>210</v>
       </c>
@@ -3953,7 +4844,7 @@
         <v>198</v>
       </c>
       <c r="C130" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D130" s="8" t="s">
         <v>8</v>
@@ -3962,7 +4853,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="8" t="s">
         <v>211</v>
       </c>
@@ -3970,7 +4861,7 @@
         <v>198</v>
       </c>
       <c r="C131" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D131" s="8" t="s">
         <v>8</v>
@@ -3979,7 +4870,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="8" t="s">
         <v>212</v>
       </c>
@@ -3987,7 +4878,7 @@
         <v>198</v>
       </c>
       <c r="C132" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D132" s="8" t="s">
         <v>16</v>
@@ -3996,7 +4887,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="8" t="s">
         <v>213</v>
       </c>
@@ -4004,7 +4895,7 @@
         <v>198</v>
       </c>
       <c r="C133" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D133" s="8" t="s">
         <v>16</v>
@@ -4013,7 +4904,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="8" t="s">
         <v>215</v>
       </c>
@@ -4021,7 +4912,7 @@
         <v>198</v>
       </c>
       <c r="C134" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D134" s="8" t="s">
         <v>8</v>
@@ -4033,7 +4924,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="8" t="s">
         <v>217</v>
       </c>
@@ -4041,7 +4932,7 @@
         <v>218</v>
       </c>
       <c r="C135" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D135" s="8" t="s">
         <v>16</v>
@@ -4050,7 +4941,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="8" t="s">
         <v>219</v>
       </c>
@@ -4058,7 +4949,7 @@
         <v>218</v>
       </c>
       <c r="C136" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D136" s="8" t="s">
         <v>16</v>
@@ -4067,7 +4958,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="8" t="s">
         <v>220</v>
       </c>
@@ -4075,7 +4966,7 @@
         <v>218</v>
       </c>
       <c r="C137" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D137" s="8" t="s">
         <v>8</v>
@@ -4084,7 +4975,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="8" t="s">
         <v>221</v>
       </c>
@@ -4092,7 +4983,7 @@
         <v>218</v>
       </c>
       <c r="C138" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D138" s="8" t="s">
         <v>8</v>
@@ -4101,7 +4992,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="8" t="s">
         <v>222</v>
       </c>
@@ -4109,7 +5000,7 @@
         <v>218</v>
       </c>
       <c r="C139" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D139" s="8" t="s">
         <v>8</v>
@@ -4118,7 +5009,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="8" t="s">
         <v>223</v>
       </c>
@@ -4126,7 +5017,7 @@
         <v>218</v>
       </c>
       <c r="C140" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D140" s="8" t="s">
         <v>8</v>
@@ -4138,7 +5029,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="8" t="s">
         <v>224</v>
       </c>
@@ -4146,7 +5037,7 @@
         <v>218</v>
       </c>
       <c r="C141" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D141" s="8" t="s">
         <v>16</v>
@@ -4155,7 +5046,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="8" t="s">
         <v>225</v>
       </c>
@@ -4163,7 +5054,7 @@
         <v>218</v>
       </c>
       <c r="C142" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D142" s="8" t="s">
         <v>16</v>
@@ -4172,7 +5063,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="8" t="s">
         <v>226</v>
       </c>
@@ -4180,7 +5071,7 @@
         <v>227</v>
       </c>
       <c r="C143" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D143" s="8" t="s">
         <v>16</v>
@@ -4189,7 +5080,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="8" t="s">
         <v>229</v>
       </c>
@@ -4197,7 +5088,7 @@
         <v>227</v>
       </c>
       <c r="C144" s="8">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D144" s="8" t="s">
         <v>16</v>
@@ -4206,7 +5097,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="8" t="s">
         <v>230</v>
       </c>
@@ -4214,7 +5105,7 @@
         <v>227</v>
       </c>
       <c r="C145" s="8">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D145" s="8" t="s">
         <v>8</v>
@@ -4223,7 +5114,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="8" t="s">
         <v>231</v>
       </c>
@@ -4231,7 +5122,7 @@
         <v>227</v>
       </c>
       <c r="C146" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D146" s="8" t="s">
         <v>8</v>
@@ -4243,7 +5134,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="8" t="s">
         <v>232</v>
       </c>
@@ -4251,7 +5142,7 @@
         <v>227</v>
       </c>
       <c r="C147" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D147" s="8" t="s">
         <v>8</v>
@@ -4263,7 +5154,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="8" t="s">
         <v>234</v>
       </c>
@@ -4271,7 +5162,7 @@
         <v>227</v>
       </c>
       <c r="C148" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D148" s="8" t="s">
         <v>16</v>
@@ -4283,7 +5174,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="8" t="s">
         <v>236</v>
       </c>
@@ -4291,7 +5182,7 @@
         <v>227</v>
       </c>
       <c r="C149" s="8">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D149" s="8" t="s">
         <v>16</v>
@@ -4300,7 +5191,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="8" t="s">
         <v>237</v>
       </c>
@@ -4308,7 +5199,7 @@
         <v>227</v>
       </c>
       <c r="C150" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D150" s="8" t="s">
         <v>16</v>
@@ -4320,7 +5211,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="8" t="s">
         <v>238</v>
       </c>
@@ -4328,7 +5219,7 @@
         <v>227</v>
       </c>
       <c r="C151" s="8">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D151" s="8" t="s">
         <v>16</v>
@@ -4337,7 +5228,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="8" t="s">
         <v>239</v>
       </c>
@@ -4345,7 +5236,7 @@
         <v>227</v>
       </c>
       <c r="C152" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D152" s="8" t="s">
         <v>8</v>
@@ -4354,7 +5245,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="8" t="s">
         <v>240</v>
       </c>
@@ -4362,7 +5253,7 @@
         <v>227</v>
       </c>
       <c r="C153" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D153" s="8" t="s">
         <v>8</v>
@@ -4374,1882 +5265,1967 @@
         <v>174</v>
       </c>
     </row>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="154" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="21.0"/>
-    <col customWidth="1" min="2" max="2" width="24.0"/>
-    <col customWidth="1" min="3" max="26" width="10.56"/>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="26" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1"/>
-    <row r="2" ht="15.75" customHeight="1"/>
-    <row r="3" ht="15.75" customHeight="1"/>
-    <row r="4" ht="15.75" customHeight="1"/>
-    <row r="5" ht="15.75" customHeight="1"/>
-    <row r="6" ht="15.75" customHeight="1"/>
-    <row r="7" ht="15.75" customHeight="1"/>
-    <row r="8" ht="15.75" customHeight="1"/>
-    <row r="9" ht="15.75" customHeight="1"/>
-    <row r="10" ht="15.75" customHeight="1"/>
-    <row r="11" ht="15.75" customHeight="1"/>
-    <row r="12" ht="15.75" customHeight="1"/>
-    <row r="13" ht="15.75" customHeight="1"/>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="12"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
-    <row r="17" ht="15.75" customHeight="1"/>
-    <row r="18" ht="15.75" customHeight="1"/>
-    <row r="19" ht="15.75" customHeight="1"/>
-    <row r="20" ht="15.75" customHeight="1"/>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="17">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="17">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="B7" s="17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="B8" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="B9" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B10" s="17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="B11" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="B12" s="17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="B13" s="19">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="11"/>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>